--- a/testdata/login_data.xlsx
+++ b/testdata/login_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>failure</t>
+  </si>
+  <si>
+    <t>WrongUsr</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -333,6 +339,44 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
